--- a/heter&linear/survey_3forms.xlsx
+++ b/heter&linear/survey_3forms.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanza/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stanza/Documents/GitHub/ETF5550/heter&amp;linear/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="23">
   <si>
     <t>folder</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>300_500_0</t>
+  </si>
+  <si>
+    <t>dl wrong</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K68"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>2</v>
       </c>
@@ -936,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>2</v>
       </c>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>2</v>
       </c>
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>2</v>
       </c>
@@ -1023,7 +1026,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B21" s="5">
         <v>2</v>
       </c>
@@ -1052,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>2</v>
       </c>
@@ -1084,7 +1090,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B23" s="6">
         <v>3</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B24" s="6">
         <v>3</v>
       </c>
@@ -1142,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B25" s="6">
         <v>3</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="6">
         <v>3</v>
       </c>
@@ -1200,7 +1206,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="B27" s="6">
         <v>3</v>
       </c>
@@ -1229,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="6">
         <v>3</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B29" s="6">
         <v>3</v>
       </c>
@@ -1287,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="6">
         <v>3</v>
       </c>
@@ -1316,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="6">
         <v>3</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="6">
         <v>3</v>
       </c>
